--- a/Coding/OTHERS/RESOURCES/DS-ALGO/TIME_COMPLEXITY_SHEET.xlsx
+++ b/Coding/OTHERS/RESOURCES/DS-ALGO/TIME_COMPLEXITY_SHEET.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB7C41-9B37-44AE-9756-DAAD08ACCE88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4042F95-0534-43D5-8338-C05513420D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="0" windowWidth="19130" windowHeight="10200" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDF" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Data- 1 of 2 No clour" sheetId="3" r:id="rId2"/>
+    <sheet name="Data- 1 of 2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3 (2)" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Data- 2 of 2 No clour" sheetId="6" r:id="rId4"/>
+    <sheet name="Data- 2 of 2" sheetId="6" r:id="rId4"/>
     <sheet name="Data-With Colour" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="131">
   <si>
     <t>Common Data Structure Operations</t>
   </si>
@@ -415,13 +415,16 @@
   </si>
   <si>
     <t>Insertion/Deletion</t>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +486,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +579,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -835,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,9 +1166,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,9 +1202,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1186,42 +1223,42 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,6 +1271,33 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1243,53 +1307,38 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7265625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1963,31 +2012,31 @@
     </row>
     <row r="9" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="110"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="84" t="s">
         <v>80</v>
       </c>
@@ -2101,31 +2150,31 @@
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="117"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="99" t="s">
         <v>86</v>
       </c>
@@ -2239,29 +2288,29 @@
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="96" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="84" t="s">
         <v>57</v>
       </c>
@@ -2280,10 +2329,10 @@
         <v>59</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D29" s="79" t="s">
         <v>71</v>
@@ -2297,32 +2346,32 @@
         <v>60</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E30" s="97" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="97" t="s">
+      <c r="B31" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="155" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2331,13 +2380,13 @@
         <v>62</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E32" s="97" t="s">
         <v>38</v>
@@ -2395,19 +2444,19 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="79" t="s">
+      <c r="B36" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="158" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2416,32 +2465,32 @@
         <v>2</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E37" s="97" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="158" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2450,13 +2499,13 @@
         <v>68</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E39" s="97" t="s">
         <v>72</v>
@@ -2480,19 +2529,19 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="98" t="s">
+      <c r="B41" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="161" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2504,27 +2553,27 @@
       <c r="E42" s="94"/>
     </row>
     <row r="43" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
     </row>
     <row r="44" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="96" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="109"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="84" t="s">
         <v>34</v>
       </c>
@@ -2621,18 +2670,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2663,57 +2712,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
       <c r="J3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121" t="s">
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="133" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="119"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2787,7 @@
       <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="122"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -3202,11 +3251,11 @@
       <c r="A22" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
       <c r="E22" s="31" t="s">
         <v>33</v>
       </c>
@@ -3460,20 +3509,20 @@
       <c r="G39" s="125"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
       <c r="G40" s="129"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="128"/>
+      <c r="A41" s="130"/>
       <c r="B41" s="6" t="s">
         <v>80</v>
       </c>
@@ -3601,13 +3650,13 @@
       <c r="A48" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
       <c r="G48" s="129"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3733,19 +3782,19 @@
       <c r="D55" s="125"/>
     </row>
     <row r="56" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="119" t="s">
+      <c r="B56" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="119"/>
+      <c r="C56" s="128"/>
       <c r="D56" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="128"/>
+      <c r="A57" s="130"/>
       <c r="B57" s="6" t="s">
         <v>34</v>
       </c>
@@ -3842,24 +3891,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3883,57 +3932,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="86" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="107"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:10" s="86" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
       <c r="J2" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="86" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="133"/>
-      <c r="B3" s="132" t="s">
+      <c r="A3" s="138"/>
+      <c r="B3" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="130" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="135" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="86" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="133"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
@@ -3943,7 +3992,7 @@
       <c r="D4" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="108" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="78" t="s">
@@ -3955,40 +4004,40 @@
       <c r="H4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="152" t="s">
+      <c r="I4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="131"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" s="86" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="149" t="s">
+      <c r="B5" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4005,7 +4054,7 @@
       <c r="D6" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="104" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="83" t="s">
@@ -4017,10 +4066,10 @@
       <c r="H6" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="149" t="s">
+      <c r="I6" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4037,7 +4086,7 @@
       <c r="D7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="104" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="83" t="s">
@@ -4049,10 +4098,10 @@
       <c r="H7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="149" t="s">
+      <c r="I7" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4069,7 +4118,7 @@
       <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="104" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="83" t="s">
@@ -4081,10 +4130,10 @@
       <c r="H8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="149" t="s">
+      <c r="I8" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4092,31 +4141,31 @@
       <c r="A9" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="149" t="s">
+      <c r="B9" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4124,31 +4173,31 @@
       <c r="A10" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="149" t="s">
+      <c r="B10" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="105" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4165,7 +4214,7 @@
       <c r="D11" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="104" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="83" t="s">
@@ -4177,10 +4226,10 @@
       <c r="H11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="149" t="s">
+      <c r="I11" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4197,7 +4246,7 @@
       <c r="D12" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="104" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="83" t="s">
@@ -4209,10 +4258,10 @@
       <c r="H12" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="149" t="s">
+      <c r="I12" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4220,31 +4269,31 @@
       <c r="A13" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="148" t="s">
+      <c r="C13" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="149" t="s">
+      <c r="G13" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4261,7 +4310,7 @@
       <c r="D14" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="104" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="83" t="s">
@@ -4273,10 +4322,10 @@
       <c r="H14" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="149" t="s">
+      <c r="I14" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4293,7 +4342,7 @@
       <c r="D15" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="104" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="83" t="s">
@@ -4305,10 +4354,10 @@
       <c r="H15" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="149" t="s">
+      <c r="I15" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4325,7 +4374,7 @@
       <c r="D16" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="104" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="90" t="s">
@@ -4337,10 +4386,10 @@
       <c r="H16" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="149" t="s">
+      <c r="I16" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4357,7 +4406,7 @@
       <c r="D17" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="104" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="83" t="s">
@@ -4369,10 +4418,10 @@
       <c r="H17" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="149" t="s">
+      <c r="I17" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4380,31 +4429,31 @@
       <c r="A18" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="151" t="s">
+      <c r="B18" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4584,57 +4633,57 @@
     </row>
     <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="72" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="146"/>
+      <c r="B11" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138" t="s">
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139" t="s">
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="151" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="71" t="s">
         <v>8</v>
       </c>
@@ -4659,7 +4708,7 @@
       <c r="I12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="140"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
@@ -5111,29 +5160,29 @@
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="72" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="145"/>
+      <c r="A30" s="143"/>
       <c r="B30" s="71" t="s">
         <v>57</v>
       </c>
@@ -5370,31 +5419,31 @@
     </row>
     <row r="45" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="141" t="s">
+      <c r="A46" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="143"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="141"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="147"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="145"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="137"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="73" t="s">
         <v>80</v>
       </c>
@@ -5508,31 +5557,31 @@
     </row>
     <row r="53" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="143"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="141"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="144" t="s">
+      <c r="A55" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="147"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="145"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="145"/>
+      <c r="A56" s="143"/>
       <c r="B56" s="73" t="s">
         <v>86</v>
       </c>
@@ -5646,27 +5695,27 @@
     </row>
     <row r="61" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="143"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="137" t="s">
+      <c r="A63" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="146" t="s">
+      <c r="B63" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="146"/>
+      <c r="C63" s="144"/>
       <c r="D63" s="74" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="137"/>
+      <c r="A64" s="146"/>
       <c r="B64" s="73" t="s">
         <v>34</v>
       </c>
@@ -5763,24 +5812,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
